--- a/resource/캡스톤_data_final.xlsx
+++ b/resource/캡스톤_data_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syk19\PycharmProjects\project_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DDB26B14-9057-478B-8EC7-CBB97D7A2782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C877A9-183C-48B9-830B-6B4662CD20A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67320" yWindow="3105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,8 +347,8 @@
   <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -710,10 +710,10 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44501.686733252311</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
+        <v>44501.686617268519</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -722,19 +722,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
         <v>3</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44501.686796655093</v>
+        <v>44501.686733252311</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -757,10 +757,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44501.687768657408</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
+        <v>44501.686733252311</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -786,45 +786,45 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44501.688207581014</v>
+        <v>44501.686796655093</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
@@ -833,36 +833,36 @@
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44501.688865671298</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
+        <v>44501.686796655093</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44501.690584641205</v>
+        <v>44501.687768657408</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -885,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -902,57 +902,57 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44501.692737210644</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
+        <v>44501.687768657408</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44501.692831435183</v>
+        <v>44501.688207581014</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
@@ -966,60 +966,60 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44501.702239664352</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
+        <v>44501.688207581014</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44501.702536643519</v>
+        <v>44501.688865671298</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1030,25 +1030,25 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44501.706023576393</v>
-      </c>
-      <c r="B22" s="1">
+        <v>44501.688865671298</v>
+      </c>
+      <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>4</v>
@@ -1057,33 +1057,33 @@
         <v>2</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44501.7111715625</v>
+        <v>44501.690584641205</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1094,31 +1094,31 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44501.716165601851</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
+        <v>44501.690584641205</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44501.724838136579</v>
+        <v>44501.692737210644</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -1138,13 +1138,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
         <v>4</v>
@@ -1158,25 +1158,25 @@
     </row>
     <row r="26" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44501.754877789353</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
+        <v>44501.692737210644</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>3</v>
@@ -1185,12 +1185,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44501.786614976852</v>
+        <v>44501.692831435183</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1205,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1222,9 +1222,9 @@
     </row>
     <row r="28" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44501.798106736111</v>
-      </c>
-      <c r="B28" s="1">
+        <v>44501.692831435183</v>
+      </c>
+      <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="1">
@@ -1234,62 +1234,62 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44501.813795196758</v>
+        <v>44501.702239664352</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44501.827214398145</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
+        <v>44501.702239664352</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
@@ -1298,19 +1298,19 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
         <v>2</v>
@@ -1318,60 +1318,60 @@
     </row>
     <row r="31" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44501.861446817129</v>
+        <v>44501.702536643519</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44501.862785590274</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
+        <v>44501.702536643519</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1">
         <v>2</v>
@@ -1382,42 +1382,42 @@
     </row>
     <row r="33" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44501.863683854172</v>
+        <v>44501.706023576393</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44501.866553518514</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2</v>
+        <v>44501.706023576393</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
@@ -1426,30 +1426,30 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
         <v>3</v>
       </c>
       <c r="I34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44501.879449467597</v>
+        <v>44501.7111715625</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -1464,56 +1464,56 @@
         <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1">
         <v>3</v>
       </c>
       <c r="I35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44501.939174687504</v>
-      </c>
-      <c r="B36" s="1">
+        <v>44501.7111715625</v>
+      </c>
+      <c r="B36" s="4">
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44501.94762363426</v>
+        <v>44501.716165601851</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1522,19 +1522,19 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1">
         <v>3</v>
       </c>
       <c r="I37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -1542,63 +1542,63 @@
     </row>
     <row r="38" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44501.960992766202</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
+        <v>44501.716165601851</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44501.984191087962</v>
+        <v>44501.724838136579</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -1606,9 +1606,9 @@
     </row>
     <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44502.003892523149</v>
-      </c>
-      <c r="B40" s="1">
+        <v>44501.724838136579</v>
+      </c>
+      <c r="B40" s="4">
         <v>1</v>
       </c>
       <c r="C40" s="1">
@@ -1618,16 +1618,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="1">
         <v>2</v>
@@ -1638,13 +1638,13 @@
     </row>
     <row r="41" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44502.048258391209</v>
+        <v>44501.754877789353</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1653,48 +1653,48 @@
         <v>3</v>
       </c>
       <c r="F41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="1">
         <v>2</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44502.346281423612</v>
-      </c>
-      <c r="B42" s="1">
+        <v>44501.754877789353</v>
+      </c>
+      <c r="B42" s="4">
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1">
         <v>2</v>
@@ -1702,45 +1702,45 @@
     </row>
     <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44502.53306494213</v>
+        <v>44501.786614976852</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44502.60886821759</v>
-      </c>
-      <c r="B44" s="1">
+        <v>44501.786614976852</v>
+      </c>
+      <c r="B44" s="4">
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1749,36 +1749,36 @@
         <v>3</v>
       </c>
       <c r="F44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" s="1">
         <v>2</v>
       </c>
       <c r="J44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44502.655007499998</v>
+        <v>44501.798106736111</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -1793,30 +1793,30 @@
         <v>2</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44502.899518668986</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
+        <v>44501.798106736111</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1">
         <v>4</v>
       </c>
       <c r="G46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="1">
         <v>3</v>
@@ -1825,18 +1825,18 @@
         <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44502.910775810189</v>
+        <v>44501.813795196758</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="48" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44503.536037592596</v>
+        <v>44501.827214398145</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1">
         <v>3</v>
@@ -1886,18 +1886,18 @@
         <v>3</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44503.722898356486</v>
+        <v>44501.861446817129</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -1906,16 +1906,16 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>4</v>
       </c>
       <c r="G49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" s="1">
         <v>2</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="50" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44503.893985532406</v>
+        <v>44501.862785590274</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
@@ -1938,30 +1938,30 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50" s="1">
         <v>2</v>
       </c>
       <c r="J50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44503.899865358791</v>
+        <v>44501.863683854172</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>3</v>
@@ -1970,27 +1970,27 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>44504.013506724536</v>
+        <v>44501.866553518514</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -2002,65 +2002,65 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1">
         <v>3</v>
       </c>
       <c r="I52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>44504.387550949075</v>
-      </c>
-      <c r="B53" s="1">
+        <v>44501.866553518514</v>
+      </c>
+      <c r="B53" s="4">
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
       </c>
       <c r="G53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>44504.580144525462</v>
+        <v>44501.879449467597</v>
       </c>
       <c r="B54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1">
         <v>3</v>
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -2086,31 +2086,31 @@
     </row>
     <row r="55" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>44511.687963530094</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2</v>
+        <v>44501.879449467597</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" s="1">
         <v>3</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="56" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>44511.712195023152</v>
+        <v>44501.939174687504</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -2133,13 +2133,13 @@
         <v>3</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
       </c>
       <c r="H56" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56" s="1">
         <v>2</v>
@@ -2150,31 +2150,31 @@
     </row>
     <row r="57" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>44511.73011694444</v>
-      </c>
-      <c r="B57" s="1">
+        <v>44501.939174687504</v>
+      </c>
+      <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -2182,19 +2182,19 @@
     </row>
     <row r="58" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>44511.770202592597</v>
+        <v>44501.94762363426</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1">
         <v>4</v>
@@ -2214,16 +2214,16 @@
     </row>
     <row r="59" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>44511.784434976857</v>
-      </c>
-      <c r="B59" s="1">
+        <v>44501.94762363426</v>
+      </c>
+      <c r="B59" s="4">
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
@@ -2235,68 +2235,68 @@
         <v>4</v>
       </c>
       <c r="H59" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>44511.878596956019</v>
+        <v>44501.960992766202</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
         <v>3</v>
       </c>
       <c r="H60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>44511.898249814811</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2</v>
+        <v>44501.960992766202</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" s="1">
         <v>3</v>
@@ -2305,15 +2305,15 @@
         <v>1</v>
       </c>
       <c r="J61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>44511.913097106481</v>
+        <v>44501.984191087962</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1">
         <v>4</v>
@@ -2331,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" s="1">
         <v>2</v>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="63" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>44511.916664641205</v>
-      </c>
-      <c r="B63" s="1">
-        <v>2</v>
+        <v>44501.984191087962</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2357,10 +2357,10 @@
         <v>4</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G63" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" s="1">
         <v>3</v>
@@ -2369,27 +2369,27 @@
         <v>1</v>
       </c>
       <c r="J63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>44511.930420983801</v>
+        <v>44502.003892523149</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
@@ -2398,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="I64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -2406,28 +2406,28 @@
     </row>
     <row r="65" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>44512.005887326392</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2</v>
+        <v>44502.003892523149</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
@@ -2438,31 +2438,31 @@
     </row>
     <row r="66" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>44512.164292233792</v>
+        <v>44502.048258391209</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G66" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" s="1">
         <v>2</v>
@@ -2470,31 +2470,31 @@
     </row>
     <row r="67" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>44512.237759004631</v>
-      </c>
-      <c r="B67" s="1">
+        <v>44502.048258391209</v>
+      </c>
+      <c r="B67" s="4">
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G67" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" s="1">
         <v>3</v>
       </c>
       <c r="I67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="68" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>44512.361212511576</v>
+        <v>44502.346281423612</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
@@ -2520,13 +2520,13 @@
         <v>3</v>
       </c>
       <c r="G68" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="1">
         <v>2</v>
@@ -2534,28 +2534,28 @@
     </row>
     <row r="69" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>44512.42381832176</v>
-      </c>
-      <c r="B69" s="1">
+        <v>44502.346281423612</v>
+      </c>
+      <c r="B69" s="4">
         <v>2</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="70" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>44512.424674155089</v>
+        <v>44502.53306494213</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -2584,10 +2584,10 @@
         <v>4</v>
       </c>
       <c r="G70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" s="1">
         <v>2</v>
@@ -2598,51 +2598,51 @@
     </row>
     <row r="71" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>44512.424938356482</v>
-      </c>
-      <c r="B71" s="1">
+        <v>44502.53306494213</v>
+      </c>
+      <c r="B71" s="4">
         <v>2</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G71" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="1">
         <v>3</v>
       </c>
       <c r="I71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>44512.471730277779</v>
+        <v>44502.60886821759</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1">
         <v>5</v>
@@ -2657,68 +2657,68 @@
         <v>2</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>44512.558076863425</v>
-      </c>
-      <c r="B73" s="1">
+        <v>44502.60886821759</v>
+      </c>
+      <c r="B73" s="4">
         <v>2</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G73" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>44512.661509398153</v>
+        <v>44502.655007499998</v>
       </c>
       <c r="B74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" s="1">
         <v>3</v>
       </c>
       <c r="G74" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1">
         <v>2</v>
@@ -2726,28 +2726,28 @@
     </row>
     <row r="75" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>44512.744101874996</v>
-      </c>
-      <c r="B75" s="1">
+        <v>44502.655007499998</v>
+      </c>
+      <c r="B75" s="4">
         <v>2</v>
       </c>
       <c r="C75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
@@ -2758,95 +2758,95 @@
     </row>
     <row r="76" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>44513.630322696758</v>
+        <v>44502.899518668986</v>
       </c>
       <c r="B76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="1">
         <v>3</v>
       </c>
       <c r="I76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>44513.653009490736</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
+        <v>44502.899518668986</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>44514.974505787039</v>
-      </c>
-      <c r="B78" s="1">
-        <v>2</v>
-      </c>
-      <c r="C78" s="1">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1">
-        <v>3</v>
-      </c>
-      <c r="F78" s="1">
-        <v>4</v>
-      </c>
-      <c r="G78" s="1">
-        <v>3</v>
-      </c>
-      <c r="H78" s="1">
-        <v>3</v>
-      </c>
-      <c r="I78" s="1">
-        <v>2</v>
+        <v>44502.899518668986</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>4</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>4</v>
+      </c>
+      <c r="F78" s="4">
+        <v>5</v>
+      </c>
+      <c r="G78" s="4">
+        <v>4</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
       </c>
       <c r="J78" s="1">
         <v>2</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="79" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>44515.992070868058</v>
+        <v>44502.899518668986</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>44516.99207083333</v>
+        <v>44502.899518668986</v>
       </c>
       <c r="B80" s="4">
         <v>1</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>44517.99207083333</v>
+        <v>44502.899518668986</v>
       </c>
       <c r="B81" s="4">
         <v>1</v>
@@ -2950,95 +2950,95 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>44518.99207083333</v>
-      </c>
-      <c r="B82" s="4">
-        <v>1</v>
+        <v>44502.910775810189</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>44519.99207083333</v>
+        <v>44502.910775810189</v>
       </c>
       <c r="B83" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H83" s="1">
         <v>2</v>
       </c>
       <c r="I83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>44520.99207083333</v>
+        <v>44502.910775810189</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
       </c>
-      <c r="C84" s="1">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1">
-        <v>1</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1</v>
-      </c>
-      <c r="H84" s="1">
-        <v>3</v>
-      </c>
-      <c r="I84" s="1">
-        <v>2</v>
+      <c r="C84" s="4">
+        <v>4</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>4</v>
+      </c>
+      <c r="F84" s="4">
+        <v>5</v>
+      </c>
+      <c r="G84" s="4">
+        <v>4</v>
+      </c>
+      <c r="H84" s="4">
+        <v>2</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>44521.99207083333</v>
+        <v>44502.910775810189</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>44522.99207083333</v>
+        <v>44502.910775810189</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -3099,24 +3099,24 @@
         <v>1</v>
       </c>
       <c r="H86" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" s="1">
         <v>2</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>44523.99207083333</v>
+        <v>44502.910775810189</v>
       </c>
       <c r="B87" s="4">
         <v>1</v>
       </c>
       <c r="C87" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -3131,36 +3131,36 @@
         <v>1</v>
       </c>
       <c r="H87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87" s="1">
         <v>2</v>
       </c>
       <c r="J87" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>44524.99207083333</v>
-      </c>
-      <c r="B88" s="4">
+        <v>44503.536037592596</v>
+      </c>
+      <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G88" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88" s="1">
         <v>3</v>
@@ -3169,36 +3169,36 @@
         <v>2</v>
       </c>
       <c r="J88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>44525.99207083333</v>
+        <v>44503.536037592596</v>
       </c>
       <c r="B89" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G89" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" s="1">
         <v>2</v>
@@ -3206,39 +3206,39 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>44526.99207083333</v>
+        <v>44503.536037592596</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
-      <c r="C90" s="1">
-        <v>4</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1">
-        <v>3</v>
-      </c>
-      <c r="I90" s="1">
-        <v>2</v>
+      <c r="C90" s="4">
+        <v>4</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>4</v>
+      </c>
+      <c r="F90" s="4">
+        <v>5</v>
+      </c>
+      <c r="G90" s="4">
+        <v>4</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1</v>
       </c>
       <c r="J90" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>44527.99207083333</v>
+        <v>44503.536037592596</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -3259,24 +3259,24 @@
         <v>1</v>
       </c>
       <c r="H91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="1">
         <v>2</v>
       </c>
       <c r="J91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>44528.99207083333</v>
+        <v>44503.536037592596</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -3297,18 +3297,18 @@
         <v>2</v>
       </c>
       <c r="J92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>44529.99207083333</v>
+        <v>44503.536037592596</v>
       </c>
       <c r="B93" s="4">
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -3323,20 +3323,20 @@
         <v>1</v>
       </c>
       <c r="H93" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" s="1">
         <v>2</v>
       </c>
       <c r="J93" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>44530.99207083333</v>
-      </c>
-      <c r="B94" s="4">
+        <v>44503.722898356486</v>
+      </c>
+      <c r="B94" s="1">
         <v>1</v>
       </c>
       <c r="C94" s="1">
@@ -3346,51 +3346,51 @@
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" s="1">
         <v>2</v>
       </c>
       <c r="J94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>44531.99207083333</v>
+        <v>44503.722898356486</v>
       </c>
       <c r="B95" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G95" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H95" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" s="1">
         <v>2</v>
@@ -3398,39 +3398,39 @@
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>44532.99207083333</v>
+        <v>44503.722898356486</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
       </c>
-      <c r="C96" s="1">
-        <v>4</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>4</v>
-      </c>
-      <c r="I96" s="1">
-        <v>2</v>
+      <c r="C96" s="4">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="4">
+        <v>4</v>
+      </c>
+      <c r="F96" s="4">
+        <v>5</v>
+      </c>
+      <c r="G96" s="4">
+        <v>4</v>
+      </c>
+      <c r="H96" s="4">
+        <v>2</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>44533.99207083333</v>
+        <v>44503.722898356486</v>
       </c>
       <c r="B97" s="4">
         <v>1</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>44534.99207083333</v>
+        <v>44503.722898356486</v>
       </c>
       <c r="B98" s="4">
         <v>1</v>
@@ -3483,24 +3483,24 @@
         <v>1</v>
       </c>
       <c r="H98" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" s="1">
         <v>2</v>
       </c>
       <c r="J98" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>44535.99207083333</v>
-      </c>
-      <c r="B99" s="4">
-        <v>1</v>
+        <v>44503.893985532406</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
       </c>
       <c r="C99" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -3509,10 +3509,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G99" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" s="1">
         <v>2</v>
@@ -3526,62 +3526,62 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>44536.99207083333</v>
+        <v>44503.893985532406</v>
       </c>
       <c r="B100" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1">
         <v>6</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G100" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>44537.99207083333</v>
+        <v>44503.893985532406</v>
       </c>
       <c r="B101" s="4">
         <v>1</v>
       </c>
-      <c r="C101" s="1">
-        <v>4</v>
-      </c>
-      <c r="D101" s="1">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1">
-        <v>3</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1</v>
-      </c>
-      <c r="H101" s="1">
-        <v>3</v>
-      </c>
-      <c r="I101" s="1">
+      <c r="C101" s="4">
+        <v>4</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4">
+        <v>4</v>
+      </c>
+      <c r="F101" s="4">
+        <v>5</v>
+      </c>
+      <c r="G101" s="4">
+        <v>4</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2</v>
+      </c>
+      <c r="I101" s="4">
         <v>1</v>
       </c>
       <c r="J101" s="1">
@@ -3590,31 +3590,31 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>44538.99207083333</v>
-      </c>
-      <c r="B102" s="4">
-        <v>1</v>
+        <v>44503.899865358791</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -3622,13 +3622,13 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>44539.99207083333</v>
+        <v>44503.899865358791</v>
       </c>
       <c r="B103" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -3637,13 +3637,13 @@
         <v>4</v>
       </c>
       <c r="F103" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G103" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" s="1">
         <v>1</v>
@@ -3654,31 +3654,31 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>44540.99207083333</v>
+        <v>44503.899865358791</v>
       </c>
       <c r="B104" s="4">
         <v>1</v>
       </c>
-      <c r="C104" s="1">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1">
-        <v>3</v>
-      </c>
-      <c r="F104" s="1">
-        <v>4</v>
-      </c>
-      <c r="G104" s="1">
-        <v>2</v>
-      </c>
-      <c r="H104" s="1">
-        <v>3</v>
-      </c>
-      <c r="I104" s="1">
-        <v>2</v>
+      <c r="C104" s="4">
+        <v>4</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="4">
+        <v>4</v>
+      </c>
+      <c r="F104" s="4">
+        <v>5</v>
+      </c>
+      <c r="G104" s="4">
+        <v>4</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>44541.99207083333</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1</v>
+        <v>44504.013506724536</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -3698,16 +3698,16 @@
         <v>1</v>
       </c>
       <c r="E105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F105" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G105" s="1">
         <v>3</v>
       </c>
       <c r="H105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" s="1">
         <v>1</v>
@@ -3718,31 +3718,31 @@
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>44542.99207083333</v>
+        <v>44504.013506724536</v>
       </c>
       <c r="B106" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G106" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H106" s="1">
         <v>3</v>
       </c>
       <c r="I106" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" s="1">
         <v>1</v>
@@ -3750,30 +3750,30 @@
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>44543.99207083333</v>
+        <v>44504.013506724536</v>
       </c>
       <c r="B107" s="4">
         <v>1</v>
       </c>
-      <c r="C107" s="1">
-        <v>3</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1">
-        <v>3</v>
-      </c>
-      <c r="F107" s="1">
-        <v>4</v>
-      </c>
-      <c r="G107" s="1">
-        <v>3</v>
-      </c>
-      <c r="H107" s="1">
-        <v>3</v>
-      </c>
-      <c r="I107" s="1">
+      <c r="C107" s="4">
+        <v>4</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="4">
+        <v>4</v>
+      </c>
+      <c r="F107" s="4">
+        <v>5</v>
+      </c>
+      <c r="G107" s="4">
+        <v>4</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2</v>
+      </c>
+      <c r="I107" s="4">
         <v>1</v>
       </c>
       <c r="J107" s="1">
@@ -3782,42 +3782,42 @@
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>44544.99207083333</v>
-      </c>
-      <c r="B108" s="4">
+        <v>44504.387550949075</v>
+      </c>
+      <c r="B108" s="1">
         <v>1</v>
       </c>
       <c r="C108" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
       </c>
       <c r="E108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" s="1">
         <v>3</v>
       </c>
       <c r="G108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>44545.99207083333</v>
+        <v>44504.387550949075</v>
       </c>
       <c r="B109" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" s="1">
         <v>3</v>
@@ -3826,19 +3826,19 @@
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F109" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G109" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" s="1">
         <v>1</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>44546.99207083333</v>
+        <v>44504.387550949075</v>
       </c>
       <c r="B110" s="4">
         <v>1</v>
@@ -3858,65 +3858,65 @@
         <v>1</v>
       </c>
       <c r="E110" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G110" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H110" s="1">
         <v>3</v>
       </c>
       <c r="I110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>44547.99207083333</v>
-      </c>
-      <c r="B111" s="4">
-        <v>1</v>
+        <v>44504.580144525462</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
       <c r="E111" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111" s="1">
         <v>5</v>
       </c>
       <c r="G111" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H111" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111" s="1">
         <v>1</v>
       </c>
       <c r="J111" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>44548.99207083333</v>
+        <v>44504.580144525462</v>
       </c>
       <c r="B112" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -3931,42 +3931,42 @@
         <v>4</v>
       </c>
       <c r="H112" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" s="1">
         <v>1</v>
       </c>
       <c r="J112" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>44549.99207083333</v>
+        <v>44504.580144525462</v>
       </c>
       <c r="B113" s="4">
         <v>1</v>
       </c>
-      <c r="C113" s="1">
-        <v>4</v>
+      <c r="C113" s="4">
+        <v>5</v>
       </c>
       <c r="D113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F113" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G113" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H113" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
@@ -3974,13 +3974,13 @@
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>44550.99207083333</v>
-      </c>
-      <c r="B114" s="4">
-        <v>1</v>
+        <v>44511.687963530094</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
       </c>
       <c r="C114" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -3992,27 +3992,27 @@
         <v>5</v>
       </c>
       <c r="G114" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H114" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" s="1">
         <v>1</v>
       </c>
       <c r="J114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>44551.99207083333</v>
+        <v>44511.687963530094</v>
       </c>
       <c r="B115" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -4027,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="H115" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" s="1">
         <v>1</v>
@@ -4038,77 +4038,74 @@
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>44552.99207083333</v>
+        <v>44511.687963530094</v>
       </c>
       <c r="B116" s="4">
         <v>2</v>
       </c>
-      <c r="C116" s="1">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1">
-        <v>4</v>
-      </c>
-      <c r="F116" s="1">
-        <v>5</v>
-      </c>
-      <c r="G116" s="1">
-        <v>4</v>
-      </c>
-      <c r="H116" s="1">
-        <v>3</v>
-      </c>
-      <c r="I116" s="1">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1">
-        <v>2</v>
+      <c r="C116" s="4">
+        <v>4</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>4</v>
+      </c>
+      <c r="F116" s="4">
+        <v>5</v>
+      </c>
+      <c r="G116" s="4">
+        <v>4</v>
+      </c>
+      <c r="H116" s="4">
+        <v>2</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>44553.99207083333</v>
-      </c>
-      <c r="B117" s="4">
+        <v>44511.712195023152</v>
+      </c>
+      <c r="B117" s="1">
         <v>2</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F117" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G117" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H117" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>44554.99207083333</v>
+        <v>44511.712195023152</v>
       </c>
       <c r="B118" s="4">
         <v>2</v>
       </c>
       <c r="C118" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
@@ -4123,88 +4120,85 @@
         <v>4</v>
       </c>
       <c r="H118" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" s="1">
         <v>1</v>
       </c>
       <c r="J118" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>44555.99207083333</v>
+        <v>44511.712195023152</v>
       </c>
       <c r="B119" s="4">
         <v>2</v>
       </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1">
-        <v>4</v>
-      </c>
-      <c r="F119" s="1">
-        <v>5</v>
-      </c>
-      <c r="G119" s="1">
-        <v>4</v>
-      </c>
-      <c r="H119" s="1">
-        <v>2</v>
-      </c>
-      <c r="I119" s="1">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1">
-        <v>2</v>
+      <c r="C119" s="4">
+        <v>4</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>4</v>
+      </c>
+      <c r="F119" s="4">
+        <v>5</v>
+      </c>
+      <c r="G119" s="4">
+        <v>4</v>
+      </c>
+      <c r="H119" s="4">
+        <v>2</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>44556.99207083333</v>
-      </c>
-      <c r="B120" s="4">
-        <v>2</v>
+        <v>44511.73011694444</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F120" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G120" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120" s="1">
         <v>2</v>
       </c>
       <c r="I120" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>44557.99207083333</v>
+        <v>44511.73011694444</v>
       </c>
       <c r="B121" s="4">
         <v>2</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -4222,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="I121" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" s="1">
         <v>1</v>
@@ -4230,45 +4224,42 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>44558.99207083333</v>
+        <v>44511.73011694444</v>
       </c>
       <c r="B122" s="4">
         <v>2</v>
       </c>
-      <c r="C122" s="1">
-        <v>2</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
-        <v>4</v>
-      </c>
-      <c r="F122" s="1">
-        <v>5</v>
-      </c>
-      <c r="G122" s="1">
-        <v>4</v>
-      </c>
-      <c r="H122" s="1">
-        <v>4</v>
-      </c>
-      <c r="I122" s="1">
-        <v>1</v>
-      </c>
-      <c r="J122" s="1">
-        <v>2</v>
+      <c r="C122" s="4">
+        <v>4</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4">
+        <v>4</v>
+      </c>
+      <c r="F122" s="4">
+        <v>5</v>
+      </c>
+      <c r="G122" s="4">
+        <v>4</v>
+      </c>
+      <c r="H122" s="4">
+        <v>2</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>44559.99207083333</v>
-      </c>
-      <c r="B123" s="4">
+        <v>44511.770202592597</v>
+      </c>
+      <c r="B123" s="1">
         <v>2</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -4277,36 +4268,36 @@
         <v>4</v>
       </c>
       <c r="F123" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G123" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H123" s="1">
         <v>3</v>
       </c>
       <c r="I123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>44560.99207083333</v>
+        <v>44511.770202592597</v>
       </c>
       <c r="B124" s="4">
         <v>2</v>
       </c>
       <c r="C124" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
       </c>
       <c r="E124" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -4321,21 +4312,21 @@
         <v>1</v>
       </c>
       <c r="J124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>44561.99207083333</v>
-      </c>
-      <c r="B125" s="4">
-        <v>2</v>
+        <v>44511.784434976857</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
       </c>
       <c r="C125" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
@@ -4347,10 +4338,10 @@
         <v>4</v>
       </c>
       <c r="H125" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" s="1">
         <v>1</v>
@@ -4358,7 +4349,7 @@
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>44562.99207083333</v>
+        <v>44511.784434976857</v>
       </c>
       <c r="B126" s="4">
         <v>2</v>
@@ -4376,7 +4367,7 @@
         <v>5</v>
       </c>
       <c r="G126" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H126" s="1">
         <v>3</v>
@@ -4390,13 +4381,13 @@
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>44563.99207083333</v>
-      </c>
-      <c r="B127" s="4">
-        <v>2</v>
+        <v>44511.878596956019</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
       </c>
       <c r="C127" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -4405,48 +4396,48 @@
         <v>4</v>
       </c>
       <c r="F127" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G127" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H127" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I127" s="1">
         <v>1</v>
       </c>
       <c r="J127" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>44564.99207083333</v>
+        <v>44511.878596956019</v>
       </c>
       <c r="B128" s="4">
         <v>2</v>
       </c>
       <c r="C128" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
       </c>
       <c r="E128" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F128" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G128" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128" s="1">
         <v>2</v>
       </c>
       <c r="I128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" s="1">
         <v>2</v>
@@ -4454,89 +4445,89 @@
     </row>
     <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>44565.99207083333</v>
-      </c>
-      <c r="B129" s="4">
+        <v>44511.898249814811</v>
+      </c>
+      <c r="B129" s="1">
         <v>2</v>
       </c>
       <c r="C129" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F129" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G129" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H129" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129" s="1">
         <v>1</v>
       </c>
       <c r="J129" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>44566.99207083333</v>
+        <v>44511.898249814811</v>
       </c>
       <c r="B130" s="4">
         <v>2</v>
       </c>
       <c r="C130" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F130" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G130" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H130" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>44567.99207083333</v>
-      </c>
-      <c r="B131" s="4">
-        <v>2</v>
+        <v>44511.913097106481</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
       </c>
       <c r="C131" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F131" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G131" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H131" s="1">
         <v>2</v>
@@ -4550,31 +4541,31 @@
     </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>44568.99207083333</v>
+        <v>44511.913097106481</v>
       </c>
       <c r="B132" s="4">
         <v>2</v>
       </c>
       <c r="C132" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
       </c>
       <c r="E132" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F132" s="1">
         <v>5</v>
       </c>
       <c r="G132" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H132" s="1">
         <v>3</v>
       </c>
       <c r="I132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" s="1">
         <v>1</v>
@@ -4582,13 +4573,13 @@
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>44569.99207083333</v>
-      </c>
-      <c r="B133" s="4">
+        <v>44511.916664641205</v>
+      </c>
+      <c r="B133" s="1">
         <v>2</v>
       </c>
       <c r="C133" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -4597,10 +4588,10 @@
         <v>4</v>
       </c>
       <c r="F133" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G133" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H133" s="1">
         <v>3</v>
@@ -4609,12 +4600,12 @@
         <v>1</v>
       </c>
       <c r="J133" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>44570.99207083333</v>
+        <v>44511.916664641205</v>
       </c>
       <c r="B134" s="4">
         <v>2</v>
@@ -4623,54 +4614,54 @@
         <v>4</v>
       </c>
       <c r="D134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F134" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G134" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H134" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I134" s="1">
         <v>2</v>
       </c>
       <c r="J134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>44571.99207083333</v>
-      </c>
-      <c r="B135" s="4">
-        <v>2</v>
+        <v>44511.930420983801</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
       </c>
       <c r="C135" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
       </c>
       <c r="E135" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F135" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G135" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" s="1">
         <v>1</v>
@@ -4678,13 +4669,13 @@
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>44572.99207083333</v>
+        <v>44511.930420983801</v>
       </c>
       <c r="B136" s="4">
         <v>2</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -4699,71 +4690,71 @@
         <v>3</v>
       </c>
       <c r="H136" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>44573.99207083333</v>
-      </c>
-      <c r="B137" s="4">
+        <v>44512.005887326392</v>
+      </c>
+      <c r="B137" s="1">
         <v>2</v>
       </c>
       <c r="C137" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
       </c>
       <c r="E137" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F137" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G137" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H137" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I137" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>44574.99207083333</v>
+        <v>44512.005887326392</v>
       </c>
       <c r="B138" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
       </c>
       <c r="E138" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F138" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G138" s="1">
         <v>3</v>
       </c>
       <c r="H138" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" s="1">
         <v>1</v>
@@ -4774,25 +4765,25 @@
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>44575.99207083333</v>
-      </c>
-      <c r="B139" s="4">
-        <v>1</v>
+        <v>44512.164292233792</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2</v>
       </c>
       <c r="C139" s="1">
         <v>6</v>
       </c>
       <c r="D139" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H139" s="1">
         <v>3</v>
@@ -4801,12 +4792,12 @@
         <v>1</v>
       </c>
       <c r="J139" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>44576.99207083333</v>
+        <v>44512.164292233792</v>
       </c>
       <c r="B140" s="4">
         <v>1</v>
@@ -4838,94 +4829,94 @@
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>44577.99207083333</v>
-      </c>
-      <c r="B141" s="4">
+        <v>44512.237759004631</v>
+      </c>
+      <c r="B141" s="1">
         <v>1</v>
       </c>
       <c r="C141" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F141" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G141" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H141" s="1">
         <v>3</v>
       </c>
       <c r="I141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>44578.99207083333</v>
+        <v>44512.237759004631</v>
       </c>
       <c r="B142" s="4">
         <v>1</v>
       </c>
-      <c r="C142" s="4">
-        <v>4</v>
-      </c>
-      <c r="D142" s="4">
-        <v>1</v>
-      </c>
-      <c r="E142" s="4">
-        <v>4</v>
-      </c>
-      <c r="F142" s="4">
-        <v>5</v>
-      </c>
-      <c r="G142" s="4">
-        <v>4</v>
-      </c>
-      <c r="H142" s="4">
-        <v>2</v>
-      </c>
-      <c r="I142" s="4">
+      <c r="C142" s="1">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4</v>
+      </c>
+      <c r="F142" s="1">
+        <v>5</v>
+      </c>
+      <c r="G142" s="1">
+        <v>3</v>
+      </c>
+      <c r="H142" s="1">
+        <v>3</v>
+      </c>
+      <c r="I142" s="1">
         <v>1</v>
       </c>
       <c r="J142" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>44579.99207083333</v>
-      </c>
-      <c r="B143" s="4">
-        <v>1</v>
-      </c>
-      <c r="C143" s="4">
-        <v>4</v>
-      </c>
-      <c r="D143" s="4">
-        <v>1</v>
-      </c>
-      <c r="E143" s="4">
-        <v>4</v>
-      </c>
-      <c r="F143" s="4">
-        <v>5</v>
-      </c>
-      <c r="G143" s="4">
-        <v>4</v>
-      </c>
-      <c r="H143" s="4">
-        <v>2</v>
-      </c>
-      <c r="I143" s="4">
+        <v>44512.361212511576</v>
+      </c>
+      <c r="B143" s="1">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1">
+        <v>4</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
+      <c r="F143" s="1">
+        <v>3</v>
+      </c>
+      <c r="G143" s="1">
+        <v>3</v>
+      </c>
+      <c r="H143" s="1">
+        <v>3</v>
+      </c>
+      <c r="I143" s="1">
         <v>1</v>
       </c>
       <c r="J143" s="1">
@@ -4934,30 +4925,30 @@
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>44580.99207083333</v>
-      </c>
-      <c r="B144" s="4">
-        <v>1</v>
-      </c>
-      <c r="C144" s="4">
-        <v>4</v>
-      </c>
-      <c r="D144" s="4">
-        <v>1</v>
-      </c>
-      <c r="E144" s="4">
-        <v>4</v>
-      </c>
-      <c r="F144" s="4">
-        <v>5</v>
-      </c>
-      <c r="G144" s="4">
-        <v>4</v>
-      </c>
-      <c r="H144" s="4">
-        <v>2</v>
-      </c>
-      <c r="I144" s="4">
+        <v>44512.42381832176</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>3</v>
+      </c>
+      <c r="F144" s="1">
+        <v>4</v>
+      </c>
+      <c r="G144" s="1">
+        <v>3</v>
+      </c>
+      <c r="H144" s="1">
+        <v>4</v>
+      </c>
+      <c r="I144" s="1">
         <v>1</v>
       </c>
       <c r="J144" s="1">
@@ -4966,31 +4957,31 @@
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>44581.99207083333</v>
-      </c>
-      <c r="B145" s="4">
-        <v>1</v>
-      </c>
-      <c r="C145" s="4">
-        <v>4</v>
-      </c>
-      <c r="D145" s="4">
-        <v>1</v>
-      </c>
-      <c r="E145" s="4">
-        <v>4</v>
-      </c>
-      <c r="F145" s="4">
-        <v>5</v>
-      </c>
-      <c r="G145" s="4">
-        <v>4</v>
-      </c>
-      <c r="H145" s="4">
-        <v>2</v>
-      </c>
-      <c r="I145" s="4">
-        <v>1</v>
+        <v>44512.424674155089</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3</v>
+      </c>
+      <c r="F145" s="1">
+        <v>4</v>
+      </c>
+      <c r="G145" s="1">
+        <v>3</v>
+      </c>
+      <c r="H145" s="1">
+        <v>3</v>
+      </c>
+      <c r="I145" s="1">
+        <v>2</v>
       </c>
       <c r="J145" s="1">
         <v>1</v>
@@ -4998,31 +4989,31 @@
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>44582.99207083333</v>
-      </c>
-      <c r="B146" s="4">
-        <v>1</v>
-      </c>
-      <c r="C146" s="4">
-        <v>4</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1</v>
-      </c>
-      <c r="E146" s="4">
-        <v>4</v>
-      </c>
-      <c r="F146" s="4">
-        <v>5</v>
-      </c>
-      <c r="G146" s="4">
-        <v>4</v>
-      </c>
-      <c r="H146" s="4">
-        <v>2</v>
-      </c>
-      <c r="I146" s="4">
-        <v>1</v>
+        <v>44512.424938356482</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1">
+        <v>4</v>
+      </c>
+      <c r="G146" s="1">
+        <v>3</v>
+      </c>
+      <c r="H146" s="1">
+        <v>3</v>
+      </c>
+      <c r="I146" s="1">
+        <v>2</v>
       </c>
       <c r="J146" s="1">
         <v>2</v>
@@ -5030,39 +5021,39 @@
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>44583.99207083333</v>
-      </c>
-      <c r="B147" s="4">
-        <v>1</v>
-      </c>
-      <c r="C147" s="4">
-        <v>4</v>
-      </c>
-      <c r="D147" s="4">
-        <v>1</v>
-      </c>
-      <c r="E147" s="4">
-        <v>4</v>
-      </c>
-      <c r="F147" s="4">
-        <v>5</v>
-      </c>
-      <c r="G147" s="4">
-        <v>4</v>
-      </c>
-      <c r="H147" s="4">
-        <v>2</v>
-      </c>
-      <c r="I147" s="4">
-        <v>1</v>
+        <v>44512.471730277779</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>4</v>
+      </c>
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
+      <c r="G147" s="1">
+        <v>3</v>
+      </c>
+      <c r="H147" s="1">
+        <v>4</v>
+      </c>
+      <c r="I147" s="1">
+        <v>2</v>
       </c>
       <c r="J147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>44584.99207083333</v>
+        <v>44512.471730277779</v>
       </c>
       <c r="B148" s="4">
         <v>1</v>
@@ -5094,31 +5085,31 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>44585.99207083333</v>
-      </c>
-      <c r="B149" s="4">
-        <v>1</v>
-      </c>
-      <c r="C149" s="4">
-        <v>4</v>
-      </c>
-      <c r="D149" s="4">
-        <v>1</v>
-      </c>
-      <c r="E149" s="4">
-        <v>4</v>
-      </c>
-      <c r="F149" s="4">
-        <v>5</v>
-      </c>
-      <c r="G149" s="4">
-        <v>4</v>
-      </c>
-      <c r="H149" s="4">
-        <v>2</v>
-      </c>
-      <c r="I149" s="4">
-        <v>1</v>
+        <v>44512.558076863425</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1">
+        <v>6</v>
+      </c>
+      <c r="D149" s="1">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1">
+        <v>2</v>
+      </c>
+      <c r="F149" s="1">
+        <v>4</v>
+      </c>
+      <c r="G149" s="1">
+        <v>3</v>
+      </c>
+      <c r="H149" s="1">
+        <v>2</v>
+      </c>
+      <c r="I149" s="1">
+        <v>2</v>
       </c>
       <c r="J149" s="1">
         <v>2</v>
@@ -5126,7 +5117,7 @@
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>44586.99207083333</v>
+        <v>44512.558076863425</v>
       </c>
       <c r="B150" s="4">
         <v>1</v>
@@ -5153,35 +5144,35 @@
         <v>1</v>
       </c>
       <c r="J150" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>44587.99207083333</v>
-      </c>
-      <c r="B151" s="4">
-        <v>1</v>
-      </c>
-      <c r="C151" s="4">
-        <v>4</v>
-      </c>
-      <c r="D151" s="4">
-        <v>1</v>
-      </c>
-      <c r="E151" s="4">
-        <v>4</v>
-      </c>
-      <c r="F151" s="4">
-        <v>5</v>
-      </c>
-      <c r="G151" s="4">
-        <v>4</v>
-      </c>
-      <c r="H151" s="4">
-        <v>2</v>
-      </c>
-      <c r="I151" s="4">
+        <v>44512.661509398153</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1">
+        <v>3</v>
+      </c>
+      <c r="G151" s="1">
+        <v>4</v>
+      </c>
+      <c r="H151" s="1">
+        <v>4</v>
+      </c>
+      <c r="I151" s="1">
         <v>1</v>
       </c>
       <c r="J151" s="1">
@@ -5190,7 +5181,7 @@
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>44588.99207083333</v>
+        <v>44512.661509398153</v>
       </c>
       <c r="B152" s="4">
         <v>1</v>
@@ -5222,30 +5213,30 @@
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>44589.99207083333</v>
-      </c>
-      <c r="B153" s="4">
-        <v>1</v>
-      </c>
-      <c r="C153" s="4">
-        <v>4</v>
-      </c>
-      <c r="D153" s="4">
-        <v>1</v>
-      </c>
-      <c r="E153" s="4">
-        <v>4</v>
-      </c>
-      <c r="F153" s="4">
-        <v>5</v>
-      </c>
-      <c r="G153" s="4">
-        <v>4</v>
-      </c>
-      <c r="H153" s="4">
-        <v>2</v>
-      </c>
-      <c r="I153" s="4">
+        <v>44512.744101874996</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>3</v>
+      </c>
+      <c r="F153" s="1">
+        <v>3</v>
+      </c>
+      <c r="G153" s="1">
+        <v>2</v>
+      </c>
+      <c r="H153" s="1">
+        <v>3</v>
+      </c>
+      <c r="I153" s="1">
         <v>1</v>
       </c>
       <c r="J153" s="1">
@@ -5254,7 +5245,7 @@
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>44590.99207083333</v>
+        <v>44512.744101874996</v>
       </c>
       <c r="B154" s="4">
         <v>1</v>
@@ -5286,31 +5277,31 @@
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>44591.99207083333</v>
-      </c>
-      <c r="B155" s="4">
-        <v>1</v>
-      </c>
-      <c r="C155" s="4">
-        <v>4</v>
-      </c>
-      <c r="D155" s="4">
-        <v>1</v>
-      </c>
-      <c r="E155" s="4">
-        <v>4</v>
-      </c>
-      <c r="F155" s="4">
-        <v>5</v>
-      </c>
-      <c r="G155" s="4">
-        <v>4</v>
-      </c>
-      <c r="H155" s="4">
-        <v>2</v>
-      </c>
-      <c r="I155" s="4">
-        <v>1</v>
+        <v>44513.630322696758</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
+      <c r="G155" s="1">
+        <v>3</v>
+      </c>
+      <c r="H155" s="1">
+        <v>3</v>
+      </c>
+      <c r="I155" s="1">
+        <v>2</v>
       </c>
       <c r="J155" s="1">
         <v>1</v>
@@ -5318,31 +5309,31 @@
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>44592.99207083333</v>
+        <v>44513.630322696758</v>
       </c>
       <c r="B156" s="4">
         <v>1</v>
       </c>
-      <c r="C156" s="1">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1">
-        <v>3</v>
-      </c>
-      <c r="F156" s="1">
-        <v>3</v>
-      </c>
-      <c r="G156" s="1">
-        <v>3</v>
-      </c>
-      <c r="H156" s="1">
-        <v>3</v>
-      </c>
-      <c r="I156" s="1">
-        <v>2</v>
+      <c r="C156" s="4">
+        <v>4</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1</v>
+      </c>
+      <c r="E156" s="4">
+        <v>4</v>
+      </c>
+      <c r="F156" s="4">
+        <v>5</v>
+      </c>
+      <c r="G156" s="4">
+        <v>4</v>
+      </c>
+      <c r="H156" s="4">
+        <v>2</v>
+      </c>
+      <c r="I156" s="4">
+        <v>1</v>
       </c>
       <c r="J156" s="1">
         <v>2</v>
@@ -5350,28 +5341,28 @@
     </row>
     <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>44593.99207083333</v>
-      </c>
-      <c r="B157" s="4">
-        <v>1</v>
-      </c>
-      <c r="C157" s="4">
-        <v>5</v>
+        <v>44513.653009490736</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>6</v>
       </c>
       <c r="D157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F157" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G157" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157" s="1">
         <v>2</v>
@@ -5382,10 +5373,10 @@
     </row>
     <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>44594.99207083333</v>
+        <v>44513.653009490736</v>
       </c>
       <c r="B158" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" s="4">
         <v>4</v>
@@ -5407,43 +5398,49 @@
       </c>
       <c r="I158" s="4">
         <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>44595.99207083333</v>
-      </c>
-      <c r="B159" s="4">
-        <v>2</v>
-      </c>
-      <c r="C159" s="4">
-        <v>4</v>
-      </c>
-      <c r="D159" s="4">
-        <v>1</v>
-      </c>
-      <c r="E159" s="4">
-        <v>4</v>
-      </c>
-      <c r="F159" s="4">
-        <v>5</v>
-      </c>
-      <c r="G159" s="4">
-        <v>4</v>
-      </c>
-      <c r="H159" s="4">
-        <v>2</v>
-      </c>
-      <c r="I159" s="4">
-        <v>1</v>
+        <v>44514.974505787039</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>3</v>
+      </c>
+      <c r="F159" s="1">
+        <v>4</v>
+      </c>
+      <c r="G159" s="1">
+        <v>3</v>
+      </c>
+      <c r="H159" s="1">
+        <v>3</v>
+      </c>
+      <c r="I159" s="1">
+        <v>2</v>
+      </c>
+      <c r="J159" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>44596.99207083333</v>
+        <v>44514.974505787039</v>
       </c>
       <c r="B160" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" s="4">
         <v>4</v>
@@ -5464,12 +5461,15 @@
         <v>2</v>
       </c>
       <c r="I160" s="4">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>44597.99207083333</v>
+        <v>44525.99207083333</v>
       </c>
       <c r="B161" s="4">
         <v>2</v>
@@ -5928,6 +5928,9 @@
       <c r="I209" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J210">
+    <sortCondition ref="A1:A210"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
